--- a/Data/Datawrapper_Codes.xlsx
+++ b/Data/Datawrapper_Codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_juni2021/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_september2021/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="8_{F974F407-8868-48F6-900C-8A3DF65F4D47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B62E491B-37B6-4748-9588-A0153C641221}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="8_{F974F407-8868-48F6-900C-8A3DF65F4D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4C2D844-6A37-445E-87D0-97BD22442EB8}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{952992A2-AB5A-41C5-8BF4-315BB967E718}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{952992A2-AB5A-41C5-8BF4-315BB967E718}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Vorlage</t>
   </si>
@@ -57,109 +57,46 @@
     <t>kt_it</t>
   </si>
   <si>
-    <t>Trinkwasser</t>
-  </si>
-  <si>
-    <t>Pestizide</t>
-  </si>
-  <si>
-    <t>Covid-19</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>Terrorismus</t>
-  </si>
-  <si>
-    <t>dZlmd</t>
-  </si>
-  <si>
-    <t>uH8Yf</t>
-  </si>
-  <si>
-    <t>kea47</t>
-  </si>
-  <si>
-    <t>thYs7</t>
-  </si>
-  <si>
-    <t>n3uat</t>
-  </si>
-  <si>
-    <t>8sLNy</t>
-  </si>
-  <si>
-    <t>Not7z</t>
-  </si>
-  <si>
-    <t>4EVgM</t>
-  </si>
-  <si>
-    <t>lYJhR</t>
-  </si>
-  <si>
-    <t>0WU72</t>
-  </si>
-  <si>
-    <t>3Vg02</t>
-  </si>
-  <si>
-    <t>Nz0Xs</t>
-  </si>
-  <si>
-    <t>rlDMd</t>
-  </si>
-  <si>
-    <t>jKQBo</t>
-  </si>
-  <si>
-    <t>33vRx</t>
-  </si>
-  <si>
-    <t>AYch1</t>
-  </si>
-  <si>
-    <t>o0cvi</t>
-  </si>
-  <si>
-    <t>Z5zBL</t>
-  </si>
-  <si>
-    <t>sLyrP</t>
-  </si>
-  <si>
-    <t>rB54t</t>
-  </si>
-  <si>
-    <t>1muyj</t>
-  </si>
-  <si>
-    <t>AwfaF</t>
-  </si>
-  <si>
-    <t>iwM5i</t>
-  </si>
-  <si>
-    <t>KN7kx</t>
-  </si>
-  <si>
-    <t>tPQ2H</t>
-  </si>
-  <si>
-    <t>93Fdl</t>
-  </si>
-  <si>
-    <t>JookL</t>
-  </si>
-  <si>
-    <t>iOG3D</t>
-  </si>
-  <si>
-    <t>vdQdG</t>
-  </si>
-  <si>
-    <t>iSbra</t>
+    <t>Kapital</t>
+  </si>
+  <si>
+    <t>Ehe</t>
+  </si>
+  <si>
+    <t>ngJCR</t>
+  </si>
+  <si>
+    <t>5w6YR</t>
+  </si>
+  <si>
+    <t>Uml2v</t>
+  </si>
+  <si>
+    <t>7NdWt</t>
+  </si>
+  <si>
+    <t>suP6p</t>
+  </si>
+  <si>
+    <t>nj23P</t>
+  </si>
+  <si>
+    <t>y2n8g</t>
+  </si>
+  <si>
+    <t>1M0JO</t>
+  </si>
+  <si>
+    <t>Pg3PM</t>
+  </si>
+  <si>
+    <t>ybTy6</t>
+  </si>
+  <si>
+    <t>yyzK5</t>
+  </si>
+  <si>
+    <t>zXazp</t>
   </si>
 </sst>
 </file>
@@ -562,22 +499,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -585,92 +522,32 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
